--- a/TestResults.xlsx
+++ b/TestResults.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Divya\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="gossip" sheetId="1" r:id="rId1"/>
     <sheet name="graph_gossip_convergence time" sheetId="2" r:id="rId2"/>
     <sheet name="graph_gossip_#rounds" sheetId="3" r:id="rId3"/>
     <sheet name="graph_gossip_#rounds_buffered" sheetId="4" r:id="rId4"/>
+    <sheet name="push-sum" sheetId="5" r:id="rId5"/>
+    <sheet name="push-sum-convergence-tim" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="12">
   <si>
     <t>line</t>
   </si>
@@ -53,12 +50,18 @@
   <si>
     <t xml:space="preserve">buffer = </t>
   </si>
+  <si>
+    <t>Converged Ratio</t>
+  </si>
+  <si>
+    <t>Actual Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,11 +166,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -176,6 +194,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -188,15 +216,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,17 +235,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -254,8 +263,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -263,33 +270,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -768,23 +753,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1603199840"/>
-        <c:axId val="-1603200384"/>
+        <c:axId val="80156928"/>
+        <c:axId val="80167296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1603199840"/>
+        <c:axId val="80156928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -802,7 +778,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -837,16 +812,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1603200384"/>
+        <c:crossAx val="80167296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1603200384"/>
+        <c:axId val="80167296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -864,7 +838,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -899,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1603199840"/>
+        <c:crossAx val="80156928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -913,8 +886,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -945,7 +916,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -974,7 +944,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -982,17 +952,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1026,7 +986,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1034,33 +993,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1137,13 +1074,12 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.40425499382138835"/>
-                  <c:y val="0.65627302411512567"/>
+                  <c:y val="0.656273024115126"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1188,26 +1124,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1336,13 +1252,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.48328501425021719"/>
-                  <c:y val="-4.2974587207008655E-2"/>
+                  <c:x val="-0.4832850142502173"/>
+                  <c:y val="-4.2974587207008696E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1379,26 +1294,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1533,13 +1428,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.49302176533852721"/>
-                  <c:y val="-6.1204816646807304E-2"/>
+                  <c:x val="-0.49302176533852743"/>
+                  <c:y val="-6.1204816646807297E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1576,26 +1470,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1730,12 +1604,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.47507988692860764"/>
+                  <c:x val="-0.47507988692860792"/>
                   <c:y val="-3.8804152804436408E-2"/>
                 </c:manualLayout>
               </c:layout>
@@ -1773,26 +1646,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1878,24 +1731,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1607610928"/>
-        <c:axId val="-1607613648"/>
+        <c:axId val="83056896"/>
+        <c:axId val="83062784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1607610928"/>
+        <c:axId val="83056896"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1913,7 +1757,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1948,18 +1791,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1607613648"/>
+        <c:crossAx val="83062784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1607613648"/>
+        <c:axId val="83062784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1977,7 +1819,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2012,7 +1853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1607610928"/>
+        <c:crossAx val="83056896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -2034,11 +1875,10 @@
           <c:yMode val="edge"/>
           <c:x val="7.2730377793350537E-2"/>
           <c:y val="0.940820363929048"/>
-          <c:w val="0.85453924441329898"/>
-          <c:h val="4.2177840430064069E-2"/>
+          <c:w val="0.85453924441329931"/>
+          <c:h val="4.2177840430064041E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2069,7 +1909,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2098,7 +1937,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2106,17 +1945,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2150,7 +1979,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2158,33 +1986,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2261,13 +2067,12 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.38948662607318113"/>
-                  <c:y val="0.60823918756337703"/>
+                  <c:x val="-0.38948662607318141"/>
+                  <c:y val="0.60823918756337736"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2312,26 +2117,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2460,13 +2245,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.48323031340140643"/>
-                  <c:y val="7.4968135792754811E-2"/>
+                  <c:y val="7.4968135792754798E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2503,26 +2287,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2657,13 +2421,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.45045072207274006"/>
-                  <c:y val="5.935356722078515E-2"/>
+                  <c:x val="-0.45045072207274023"/>
+                  <c:y val="5.9353567220785185E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2700,26 +2463,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2854,13 +2597,12 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.48730531128013338"/>
-                  <c:y val="6.1100602127191254E-2"/>
+                  <c:y val="6.1100602127191289E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2897,26 +2639,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -3002,24 +2724,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-1610671680"/>
-        <c:axId val="-1610670592"/>
+        <c:axId val="84387328"/>
+        <c:axId val="84388864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1610671680"/>
+        <c:axId val="84387328"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3037,7 +2750,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3072,18 +2784,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1610670592"/>
+        <c:crossAx val="84388864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1610670592"/>
+        <c:axId val="84388864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3101,7 +2812,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3136,7 +2846,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1610671680"/>
+        <c:crossAx val="84387328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -3153,7 +2863,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3184,7 +2893,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3213,7 +2921,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5037,7 +4745,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5069,10 +4777,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5104,7 +4811,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5280,16 +4986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -5297,29 +5003,29 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:14">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5360,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>10</v>
       </c>
@@ -5384,7 +5090,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>100</v>
       </c>
@@ -5408,7 +5114,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>250</v>
       </c>
@@ -5432,7 +5138,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>500</v>
       </c>
@@ -5456,7 +5162,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>750</v>
       </c>
@@ -5487,7 +5193,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>900</v>
       </c>
@@ -5532,15 +5238,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>1600</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1">
         <v>61</v>
       </c>
@@ -5572,15 +5278,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2500</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1">
         <v>67</v>
       </c>
@@ -5612,15 +5318,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>3600</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1">
         <v>85</v>
       </c>
@@ -5652,15 +5358,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>4900</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1">
         <v>115</v>
       </c>
@@ -5692,15 +5398,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>6400</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1">
         <v>132</v>
       </c>
@@ -5735,15 +5441,15 @@
         <v>83976</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>8100</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1">
         <v>145</v>
       </c>
@@ -5775,15 +5481,15 @@
         <v>435</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>10000</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="4">
         <v>160</v>
       </c>
@@ -5822,31 +5528,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="13" t="s">
+    <row r="3" spans="2:13">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -5870,7 +5576,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>10</v>
       </c>
@@ -5888,7 +5594,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>100</v>
       </c>
@@ -5906,7 +5612,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>250</v>
       </c>
@@ -5924,7 +5630,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>500</v>
       </c>
@@ -5942,7 +5648,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>750</v>
       </c>
@@ -5962,7 +5668,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>900</v>
       </c>
@@ -5986,11 +5692,11 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11">
         <v>1600</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2">
         <v>8824</v>
       </c>
@@ -6008,11 +5714,11 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12">
         <v>2500</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2">
         <v>7205</v>
       </c>
@@ -6030,11 +5736,11 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13">
         <v>3600</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2">
         <v>10194</v>
       </c>
@@ -6052,11 +5758,11 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>4900</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="2">
         <v>17164</v>
       </c>
@@ -6074,11 +5780,11 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>6400</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="2">
         <v>37290</v>
       </c>
@@ -6096,11 +5802,11 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>8100</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="2">
         <v>67077</v>
       </c>
@@ -6118,11 +5824,11 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>10000</v>
       </c>
-      <c r="C17" s="15"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="5">
         <v>19438</v>
       </c>
@@ -6150,33 +5856,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6196,7 +5902,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -6210,7 +5916,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -6224,7 +5930,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>250</v>
       </c>
@@ -6238,7 +5944,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>500</v>
       </c>
@@ -6252,7 +5958,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>750</v>
       </c>
@@ -6268,7 +5974,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>900</v>
       </c>
@@ -6288,11 +5994,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>1600</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2">
         <v>61</v>
       </c>
@@ -6306,11 +6012,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>2500</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2">
         <v>67</v>
       </c>
@@ -6324,11 +6030,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>3600</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2">
         <v>85</v>
       </c>
@@ -6342,11 +6048,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>4900</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2">
         <v>115</v>
       </c>
@@ -6360,11 +6066,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>6400</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2">
         <v>132</v>
       </c>
@@ -6378,11 +6084,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>8100</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2">
         <v>145</v>
       </c>
@@ -6396,11 +6102,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>10000</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2">
         <v>160</v>
       </c>
@@ -6422,33 +6128,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="2"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6468,7 +6174,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>10</v>
       </c>
@@ -6482,7 +6188,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>100</v>
       </c>
@@ -6496,7 +6202,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>250</v>
       </c>
@@ -6510,7 +6216,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>500</v>
       </c>
@@ -6524,7 +6230,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>750</v>
       </c>
@@ -6540,7 +6246,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>900</v>
       </c>
@@ -6560,11 +6266,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>1600</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <v>141</v>
       </c>
@@ -6578,11 +6284,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>2500</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3">
         <v>192</v>
       </c>
@@ -6596,11 +6302,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>3600</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3">
         <v>265</v>
       </c>
@@ -6614,11 +6320,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>4900</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3">
         <v>360</v>
       </c>
@@ -6632,11 +6338,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>6400</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3">
         <v>452</v>
       </c>
@@ -6650,11 +6356,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>8100</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3">
         <v>550</v>
       </c>
@@ -6668,11 +6374,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>10000</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="6">
         <v>660</v>
       </c>
@@ -6691,4 +6397,514 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="17">
+        <v>70</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3.8940912902994298</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17">
+        <v>52</v>
+      </c>
+      <c r="L4" s="17">
+        <v>4.8269230773199299</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4">
+        <f>A4*(A4 -1)/(2*A4)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" s="17">
+        <v>289</v>
+      </c>
+      <c r="C5" s="17">
+        <v>51.5724451230612</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17">
+        <v>373</v>
+      </c>
+      <c r="L5" s="17">
+        <v>48.466579698647202</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5">
+        <f t="shared" ref="N5:N16" si="0">A5*(A5 -1)/(2*A5)</f>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6" s="17">
+        <v>621</v>
+      </c>
+      <c r="C6" s="17">
+        <v>115.316435250212</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17">
+        <v>592</v>
+      </c>
+      <c r="L6" s="17">
+        <v>125.053369094557</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7" s="17">
+        <v>626</v>
+      </c>
+      <c r="C7" s="17">
+        <v>136.529324028953</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17">
+        <v>958</v>
+      </c>
+      <c r="L7" s="17">
+        <v>247.230169828757</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>750</v>
+      </c>
+      <c r="B8" s="17">
+        <v>543</v>
+      </c>
+      <c r="C8" s="17">
+        <v>87.345854682199601</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17">
+        <v>984</v>
+      </c>
+      <c r="L8" s="17">
+        <v>370.06902775538202</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>374.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>900</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
+        <v>408</v>
+      </c>
+      <c r="F9" s="17">
+        <v>456.53953241022401</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
+        <v>2082</v>
+      </c>
+      <c r="I9" s="17">
+        <v>444.20860814056198</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17">
+        <v>945</v>
+      </c>
+      <c r="L9" s="17">
+        <v>450.10146336181998</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>449.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>1600</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
+        <v>633</v>
+      </c>
+      <c r="F10" s="17">
+        <v>821.65576857758504</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>2844</v>
+      </c>
+      <c r="I10" s="17">
+        <v>787.11981462780102</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17">
+        <v>1141</v>
+      </c>
+      <c r="L10" s="17">
+        <v>799.87964493247603</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>799.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2500</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
+        <v>2999</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1182.9955290707401</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>2162</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1223.43066939561</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17">
+        <v>1614</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1243.9151238678501</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1249.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>3600</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
+        <v>4175</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2197.6045932161401</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <v>5379</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1779.64955223979</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17">
+        <v>4527</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1794.4233400000001</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1799.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>4900</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>919</v>
+      </c>
+      <c r="F13" s="17">
+        <v>2295.68072289156</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>7145</v>
+      </c>
+      <c r="I13" s="17">
+        <v>2429.3478303995398</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17">
+        <v>12090</v>
+      </c>
+      <c r="L13" s="17">
+        <v>2456.2410169505702</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>2449.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>6400</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
+        <v>3810</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3846.0018221227001</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
+        <v>1924</v>
+      </c>
+      <c r="I14" s="17">
+        <v>3157.3052692686001</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17">
+        <v>21193</v>
+      </c>
+      <c r="L14" s="17">
+        <v>3214.3557397826098</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>3199.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>8100</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
+        <v>1649</v>
+      </c>
+      <c r="F15" s="17">
+        <v>4834.0287567858204</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17">
+        <v>4959</v>
+      </c>
+      <c r="I15" s="17">
+        <v>4025.4220704653999</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17">
+        <v>5263</v>
+      </c>
+      <c r="L15" s="17">
+        <v>4043.8094528829802</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>4049.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>10000</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17">
+        <v>3499</v>
+      </c>
+      <c r="F16" s="17">
+        <v>4483.6691917179396</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17">
+        <v>2850</v>
+      </c>
+      <c r="I16" s="17">
+        <v>5018.4044796333601</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17">
+        <v>54800</v>
+      </c>
+      <c r="L16" s="17">
+        <v>4980.5623834406097</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4999.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>